--- a/DIA/QK/Mastertabelle.xlsx
+++ b/DIA/QK/Mastertabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Home$/Repositories/shiny-server/DIA/QK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA41B832-0C4D-3549-A1D5-4C784BAD87AE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C51032D-FA67-FC4D-B2AA-52C32FADB225}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="2240" windowWidth="32680" windowHeight="22980" tabRatio="692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8460" yWindow="1760" windowWidth="32680" windowHeight="22980" tabRatio="692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="26" r:id="rId1"/>
@@ -830,7 +830,7 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
